--- a/Riesgo/DataTarea_Exogenas_Riesgo1.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0FC37-25AE-4092-9669-93698AE71AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F177A278-6213-4F1F-B134-8CED4E147391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2670" windowWidth="21540" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="2325" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
     <col min="4" max="4" width="14.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -546,114 +546,117 @@
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>2.6430951174366473</v>
+        <v>3.75</v>
       </c>
       <c r="C3" s="4">
-        <v>-2.824276733848583</v>
+        <v>-4.3</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>2.5753901834923272</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>-2.4001121761291659</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D4" s="5"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>2.5180305634547002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5" s="4">
-        <v>-2.0223598132153691</v>
+        <v>-4.5</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>2.4694354933588212</v>
+        <v>4.2</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.7139905772327138</v>
+        <v>-4.5</v>
       </c>
       <c r="D6" s="5"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>2.4282657499735931</v>
+        <v>4.3</v>
       </c>
       <c r="C7" s="4">
-        <v>-1.4751196862998024</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>2.3933867433776279</v>
+        <v>4.3</v>
       </c>
       <c r="C8" s="4">
-        <v>-1.2966693080036298</v>
+        <v>-4.3</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>2.363837248989527</v>
+        <v>4.3</v>
       </c>
       <c r="C9" s="4">
-        <v>-1.1670368548440262</v>
+        <v>-4.25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>2.3388029173439269</v>
+        <v>4.25</v>
       </c>
       <c r="C10" s="4">
-        <v>-1.0759105395835344</v>
+        <v>-4</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="14"/>
